--- a/gd/美术需求文档/Demo怪物动作特效需求.xlsx
+++ b/gd/美术需求文档/Demo怪物动作特效需求.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="176">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>双手抱头，肚子上的大嘴张开，呼呼的吸气（吞噬四周的能量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转向目标，缓缓的推开眼罩，露出邪魅的微笑（脸上和肚子上都是）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -692,10 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匍匐状态，转向目标，抬起一只手推开眼罩，露出邪魅的微笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胜利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,6 +725,22 @@
   </si>
   <si>
     <t>转过身，面向屏幕（180度转身）跳肚皮舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头顶攻击，用头向前用力一顶（不产生位移）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中：目标身上有白色气浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匍匐状态，转向目标，抬起一只手推开眼罩（无眼罩时通用），露出邪魅的微笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向目标，双手捧着肚子，肚子上的脸露出邪魅的微笑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,8 +962,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +975,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1140,7 +1148,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>10689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1549,7 +1557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1559,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -1611,9 +1619,9 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1631,9 +1639,9 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1644,55 +1652,55 @@
         <v>23</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="F6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1707,9 +1715,9 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1722,30 +1730,30 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F12" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F13" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -1786,9 +1794,9 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1806,9 +1814,9 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1823,9 +1831,9 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="F19" s="6" t="s">
         <v>3</v>
       </c>
@@ -1833,13 +1841,13 @@
         <v>33</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="F20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1847,27 +1855,27 @@
         <v>34</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="F21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="F22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1882,9 +1890,9 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
@@ -1897,30 +1905,30 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F24" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F25" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F26" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
@@ -1959,9 +1967,9 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1979,9 +1987,9 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
@@ -1996,9 +2004,9 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="F32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2006,13 +2014,13 @@
         <v>39</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
       <c r="F33" s="6" t="s">
         <v>20</v>
       </c>
@@ -2020,27 +2028,27 @@
         <v>40</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
       <c r="F34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
       <c r="F35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2055,9 +2063,9 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
       <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
@@ -2070,30 +2078,30 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F37" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F38" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F39" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
@@ -2101,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
@@ -2132,9 +2140,9 @@
       </c>
     </row>
     <row r="45" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>27</v>
@@ -2152,90 +2160,90 @@
       </c>
     </row>
     <row r="46" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
       <c r="F47" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="81" x14ac:dyDescent="0.35">
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="F48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="81" x14ac:dyDescent="0.35">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="F48" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="49" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
       <c r="F49" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
       <c r="F50" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
       <c r="F51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>30</v>
@@ -2246,10 +2254,10 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="F52" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
@@ -2257,14 +2265,14 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="F53" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
@@ -2272,15 +2280,15 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="F54" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="E55" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.35">
@@ -2288,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>8</v>
@@ -2319,9 +2327,9 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>27</v>
@@ -2339,90 +2347,90 @@
       </c>
     </row>
     <row r="60" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J60" s="7" t="s">
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="F61" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="F62" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J61" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="F62" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" s="5" t="s">
+      <c r="J62" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J62" s="7" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="63" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
       <c r="F63" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
       <c r="F64" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
       <c r="F65" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>30</v>
@@ -2430,73 +2438,73 @@
     </row>
     <row r="66" spans="2:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F66" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="J66" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F67" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="J68" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="J69" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="J70" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F71" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H71" s="17"/>
       <c r="I71" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F72" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F73" s="30"/>
-      <c r="G73" s="31"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -2507,52 +2515,52 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="G76" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F77" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G77" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F78" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F79" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F80" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G80" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
+      <c r="F80" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
@@ -2594,80 +2602,84 @@
         <v>44</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+    <row r="87" spans="2:13" ht="41.25" x14ac:dyDescent="0.4">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="G87" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
-      <c r="J87" s="16"/>
+      <c r="J87" s="16" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="88" spans="2:13" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
       <c r="F88" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="2:13" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
       <c r="F89" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>163</v>
+        <v>147</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
       <c r="F90" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="22"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
       <c r="F91" s="19" t="s">
         <v>6</v>
       </c>
@@ -2677,9 +2689,9 @@
       <c r="J91" s="22"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
       <c r="F92" s="19" t="s">
         <v>7</v>
       </c>
@@ -2690,10 +2702,10 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F93" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G93" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -2701,14 +2713,14 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F94" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G94" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="G94" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J94" s="16"/>
     </row>
@@ -2728,10 +2740,10 @@
     </row>
     <row r="97" spans="5:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F97" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H97" s="17"/>
       <c r="I97" s="17" t="s">
@@ -2743,20 +2755,20 @@
     </row>
     <row r="98" spans="5:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F98" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="5:10" ht="81" x14ac:dyDescent="0.35">
       <c r="F99" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>49</v>
@@ -2764,20 +2776,20 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="60.75" x14ac:dyDescent="0.35">
       <c r="F100" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>50</v>
+        <v>154</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="40.5" x14ac:dyDescent="0.35">
@@ -2785,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
@@ -2798,22 +2810,22 @@
         <v>6</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H102" s="17"/>
       <c r="I102" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F103" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
@@ -2823,10 +2835,10 @@
     </row>
     <row r="104" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F104" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
@@ -2834,23 +2846,23 @@
     </row>
     <row r="105" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F105" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G105" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J105" s="25"/>
     </row>
     <row r="106" spans="5:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="F106" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H106" s="17"/>
       <c r="I106" s="26"/>
@@ -2858,13 +2870,13 @@
     </row>
     <row r="108" spans="5:10" ht="40.5" x14ac:dyDescent="0.35">
       <c r="E108" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="G108" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="G108" s="24" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2898,122 +2910,122 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
